--- a/Static Evaluation/Swift-Java/arrayListResults.xlsx
+++ b/Static Evaluation/Swift-Java/arrayListResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="196">
   <si>
     <t>add_Wrapper</t>
   </si>
@@ -276,6 +276,342 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/28089242</t>
+  </si>
+  <si>
+    <t>lastIndexOf_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index of last </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8882376</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/32223938</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/10660160</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/12880990</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1181976</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2615834</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/10926234</t>
+  </si>
+  <si>
+    <t>contains_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains string returns </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2275035</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1046822</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/16218947</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/6104802</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3559079</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/31950446</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3943650</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8995988</t>
+  </si>
+  <si>
+    <t>size_Wrapper</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/32197592</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/24581740</t>
+  </si>
+  <si>
+    <t>subList_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index returned string </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/11230042</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/27071574</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/5034592</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/6952379</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/4570062</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/31482998</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/7684061</t>
+  </si>
+  <si>
+    <t>addAll_Wrapper</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/26905402</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1481185</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3924759</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1522115</t>
+  </si>
+  <si>
+    <t>set_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set string list </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2319555</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/9758865</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/13395230</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/11986662</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1005083</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/15815631</t>
+  </si>
+  <si>
+    <t>ensureCapacity_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity ensure list </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3564928</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/15430259</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/11908085</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/4450659</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/5638128</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/28315381</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3768057</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/15162756</t>
+  </si>
+  <si>
+    <t>trimToSize_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size trims list </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1279497</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/20137246</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/23831296</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1963881</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/22587112</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8499776</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/18696199</t>
+  </si>
+  <si>
+    <t>removeAll_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removes all list </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/13565956</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3099639</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/4819668</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/23933477</t>
+  </si>
+  <si>
+    <t>retainAll_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retains all elements </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2048374</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8441681</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/5943349</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8555958</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/14783038</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/5283079</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/11799240</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8882126</t>
+  </si>
+  <si>
+    <t>listIterator_Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterator index from </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3329851</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/477592</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/20961634</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/30124041</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3431543</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/22793119</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/27301043</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/18552071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterator list in </t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/18410489</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/10975386</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/25439439</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/85206</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/6700737</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/223929</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/7409771</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/9652745</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/15512528</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/30741343</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/29463865</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/30519631</t>
+  </si>
+  <si>
+    <t>size returns list</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/16665190</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/448333</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/12899989</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/4614244</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/22755225</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/14534798</t>
+  </si>
+  <si>
+    <t>all add appends</t>
   </si>
 </sst>
 </file>
@@ -593,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247:C258"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +965,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -637,6 +976,9 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -645,6 +987,9 @@
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -653,6 +998,9 @@
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -661,6 +1009,9 @@
       <c r="B9">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -669,6 +1020,9 @@
       <c r="B10">
         <v>6</v>
       </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -677,6 +1031,9 @@
       <c r="B11">
         <v>7</v>
       </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -685,6 +1042,9 @@
       <c r="B12">
         <v>8</v>
       </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -698,9 +1058,9 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <f>C5</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,9 +1070,9 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
         <f>C6</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,9 +1088,9 @@
         <f>INDEX(B5:B12,MATCH(A19,A5:A12,0))</f>
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f>INDEX(C5:C12,MATCH(A19,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,9 +1101,9 @@
         <f>INDEX(B5:B12,MATCH(A20,A5:A12,0))</f>
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f>INDEX(C5:C12,MATCH(A20,A5:A12,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,9 +1114,9 @@
         <f>INDEX(B5:B12,MATCH(A21,A5:A12,0))</f>
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f>INDEX(C5:C12,MATCH(A21,A5:A12,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,9 +1127,9 @@
         <f>INDEX(B5:B12,MATCH(A22,A5:A12,0))</f>
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <f>INDEX(C5:C12,MATCH(A22,A5:A12,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,9 +1140,9 @@
         <f>INDEX(B5:B12,MATCH(A23,A5:A12,0))</f>
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f>INDEX(C5:C12,MATCH(A23,A5:A12,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,9 +1153,9 @@
         <f>INDEX(B5:B12,MATCH(A24,A5:A12,0))</f>
         <v>8</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="str">
         <f>INDEX(C5:C12,MATCH(A24,A5:A12,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,9 +1166,9 @@
         <f>INDEX(B5:B12,MATCH(A25,A5:A12,0))</f>
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="str">
         <f>INDEX(C5:C12,MATCH(A25,A5:A12,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,9 +1179,9 @@
         <f>INDEX(B5:B12,MATCH(A26,A5:A12,0))</f>
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f>INDEX(C5:C12,MATCH(A26,A5:A12,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,6 +1214,9 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -862,6 +1225,9 @@
       <c r="B35">
         <v>2</v>
       </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -870,6 +1236,9 @@
       <c r="B36">
         <v>3</v>
       </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -878,6 +1247,9 @@
       <c r="B37">
         <v>4</v>
       </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -886,6 +1258,9 @@
       <c r="B38">
         <v>5</v>
       </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -894,6 +1269,9 @@
       <c r="B39">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -902,6 +1280,9 @@
       <c r="B40">
         <v>7</v>
       </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -910,6 +1291,9 @@
       <c r="B41">
         <v>8</v>
       </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -923,9 +1307,9 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
         <f>C34</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,9 +1319,9 @@
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <f>C35</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,9 +1337,9 @@
         <f>INDEX(B34:B41,MATCH(A48,A34:A41,0))</f>
         <v>5</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="str">
         <f>INDEX(C34:C41,MATCH(A48,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,9 +1350,9 @@
         <f>INDEX(B34:B41,MATCH(A49,A34:A41,0))</f>
         <v>2</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="str">
         <f>INDEX(C34:C41,MATCH(A49,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,9 +1363,9 @@
         <f>INDEX(B34:B41,MATCH(A50,A34:A41,0))</f>
         <v>7</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <f>INDEX(C34:C41,MATCH(A50,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,9 +1376,9 @@
         <f>INDEX(B34:B41,MATCH(A51,A34:A41,0))</f>
         <v>8</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
         <f>INDEX(C34:C41,MATCH(A51,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,9 +1389,9 @@
         <f>INDEX(B34:B41,MATCH(A52,A34:A41,0))</f>
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <f>INDEX(C34:C41,MATCH(A52,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,9 +1402,9 @@
         <f>INDEX(B34:B41,MATCH(A53,A34:A41,0))</f>
         <v>1</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <f>INDEX(C34:C41,MATCH(A53,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,9 +1415,9 @@
         <f>INDEX(B34:B41,MATCH(A54,A34:A41,0))</f>
         <v>3</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="str">
         <f>INDEX(C34:C41,MATCH(A54,A34:A41,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,9 +1428,9 @@
         <f>INDEX(B34:B41,MATCH(A55,A34:A41,0))</f>
         <v>4</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="str">
         <f>INDEX(C34:C41,MATCH(A55,A34:A41,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,6 +1463,9 @@
       <c r="B63">
         <v>1</v>
       </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1087,6 +1474,9 @@
       <c r="B64">
         <v>2</v>
       </c>
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1095,6 +1485,9 @@
       <c r="B65">
         <v>3</v>
       </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -1103,6 +1496,9 @@
       <c r="B66">
         <v>4</v>
       </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1111,6 +1507,9 @@
       <c r="B67">
         <v>5</v>
       </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1119,6 +1518,9 @@
       <c r="B68">
         <v>6</v>
       </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -1127,6 +1529,9 @@
       <c r="B69">
         <v>7</v>
       </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1135,6 +1540,9 @@
       <c r="B70">
         <v>8</v>
       </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -1148,9 +1556,9 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="str">
         <f>C63</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,9 +1568,9 @@
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="str">
         <f>C64</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,9 +1586,9 @@
         <f>INDEX(B63:B70,MATCH(A77,A63:A70,0))</f>
         <v>5</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="str">
         <f>INDEX(C63:C70,MATCH(A77,A63:A70,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,9 +1599,9 @@
         <f>INDEX(B63:B70,MATCH(A78,A63:A70,0))</f>
         <v>4</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="str">
         <f>INDEX(C63:C70,MATCH(A78,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,9 +1612,9 @@
         <f>INDEX(B63:B70,MATCH(A79,A63:A70,0))</f>
         <v>1</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="str">
         <f>INDEX(C63:C70,MATCH(A79,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,9 +1625,9 @@
         <f>INDEX(B63:B70,MATCH(A80,A63:A70,0))</f>
         <v>6</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="str">
         <f>INDEX(C63:C70,MATCH(A80,A63:A70,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,9 +1638,9 @@
         <f>INDEX(B63:B70,MATCH(A81,A63:A70,0))</f>
         <v>8</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="str">
         <f>INDEX(C63:C70,MATCH(A81,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,9 +1651,9 @@
         <f>INDEX(B63:B70,MATCH(A82,A63:A70,0))</f>
         <v>7</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="str">
         <f>INDEX(C63:C70,MATCH(A82,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,9 +1664,9 @@
         <f>INDEX(B63:B70,MATCH(A83,A63:A70,0))</f>
         <v>3</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="str">
         <f>INDEX(C63:C70,MATCH(A83,A63:A70,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,9 +1677,9 @@
         <f>INDEX(B63:B70,MATCH(A84,A63:A70,0))</f>
         <v>2</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="str">
         <f>INDEX(C63:C70,MATCH(A84,A63:A70,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,6 +1712,9 @@
       <c r="B92">
         <v>1</v>
       </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -1312,6 +1723,9 @@
       <c r="B93">
         <v>2</v>
       </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -1320,6 +1734,9 @@
       <c r="B94">
         <v>3</v>
       </c>
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -1328,6 +1745,9 @@
       <c r="B95">
         <v>4</v>
       </c>
+      <c r="C95" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -1336,6 +1756,9 @@
       <c r="B96">
         <v>5</v>
       </c>
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -1344,6 +1767,9 @@
       <c r="B97">
         <v>6</v>
       </c>
+      <c r="C97" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -1352,6 +1778,9 @@
       <c r="B98">
         <v>7</v>
       </c>
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -1360,6 +1789,9 @@
       <c r="B99">
         <v>8</v>
       </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -1373,9 +1805,9 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="str">
         <f>C92</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,9 +1817,9 @@
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="str">
         <f>C93</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,9 +1835,9 @@
         <f>INDEX(B92:B99,MATCH(A106,A92:A99,0))</f>
         <v>8</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="str">
         <f>INDEX(C92:C99,MATCH(A106,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,9 +1848,9 @@
         <f>INDEX(B92:B99,MATCH(A107,A92:A99,0))</f>
         <v>4</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="str">
         <f>INDEX(C92:C99,MATCH(A107,A92:A99,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,9 +1861,9 @@
         <f>INDEX(B92:B99,MATCH(A108,A92:A99,0))</f>
         <v>1</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="str">
         <f>INDEX(C92:C99,MATCH(A108,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,9 +1874,9 @@
         <f>INDEX(B92:B99,MATCH(A109,A92:A99,0))</f>
         <v>7</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="str">
         <f>INDEX(C92:C99,MATCH(A109,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,9 +1887,9 @@
         <f>INDEX(B92:B99,MATCH(A110,A92:A99,0))</f>
         <v>3</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="str">
         <f>INDEX(C92:C99,MATCH(A110,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,9 +1900,9 @@
         <f>INDEX(B92:B99,MATCH(A111,A92:A99,0))</f>
         <v>5</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="str">
         <f>INDEX(C92:C99,MATCH(A111,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,9 +1913,9 @@
         <f>INDEX(B92:B99,MATCH(A112,A92:A99,0))</f>
         <v>6</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="str">
         <f>INDEX(C92:C99,MATCH(A112,A92:A99,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,9 +1926,9 @@
         <f>INDEX(B92:B99,MATCH(A113,A92:A99,0))</f>
         <v>2</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="str">
         <f>INDEX(C92:C99,MATCH(A113,A92:A99,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,6 +1961,9 @@
       <c r="B121">
         <v>1</v>
       </c>
+      <c r="C121" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -1537,6 +1972,9 @@
       <c r="B122">
         <v>2</v>
       </c>
+      <c r="C122" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -1545,6 +1983,9 @@
       <c r="B123">
         <v>3</v>
       </c>
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -1553,6 +1994,9 @@
       <c r="B124">
         <v>4</v>
       </c>
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -1561,6 +2005,9 @@
       <c r="B125">
         <v>5</v>
       </c>
+      <c r="C125" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -1569,6 +2016,9 @@
       <c r="B126">
         <v>6</v>
       </c>
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -1577,6 +2027,9 @@
       <c r="B127">
         <v>7</v>
       </c>
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -1585,6 +2038,9 @@
       <c r="B128">
         <v>8</v>
       </c>
+      <c r="C128" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -1598,9 +2054,9 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="str">
         <f>C121</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,9 +2066,9 @@
       <c r="B132">
         <v>2</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="str">
         <f>C122</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,9 +2084,9 @@
         <f>INDEX(B121:B128,MATCH(A135,A121:A128,0))</f>
         <v>3</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="str">
         <f>INDEX(C121:C128,MATCH(A135,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,9 +2097,9 @@
         <f>INDEX(B121:B128,MATCH(A136,A121:A128,0))</f>
         <v>8</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="str">
         <f>INDEX(C121:C128,MATCH(A136,A121:A128,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,9 +2110,9 @@
         <f>INDEX(B121:B128,MATCH(A137,A121:A128,0))</f>
         <v>4</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="str">
         <f>INDEX(C121:C128,MATCH(A137,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,9 +2123,9 @@
         <f>INDEX(B121:B128,MATCH(A138,A121:A128,0))</f>
         <v>1</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="str">
         <f>INDEX(C121:C128,MATCH(A138,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,9 +2136,9 @@
         <f>INDEX(B121:B128,MATCH(A139,A121:A128,0))</f>
         <v>6</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="str">
         <f>INDEX(C121:C128,MATCH(A139,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,9 +2149,9 @@
         <f>INDEX(B121:B128,MATCH(A140,A121:A128,0))</f>
         <v>7</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="str">
         <f>INDEX(C121:C128,MATCH(A140,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,9 +2162,9 @@
         <f>INDEX(B121:B128,MATCH(A141,A121:A128,0))</f>
         <v>5</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="str">
         <f>INDEX(C121:C128,MATCH(A141,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,9 +2175,9 @@
         <f>INDEX(B121:B128,MATCH(A142,A121:A128,0))</f>
         <v>2</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="str">
         <f>INDEX(C121:C128,MATCH(A142,A121:A128,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,6 +2210,9 @@
       <c r="B150">
         <v>1</v>
       </c>
+      <c r="C150" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -1762,6 +2221,9 @@
       <c r="B151">
         <v>2</v>
       </c>
+      <c r="C151" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -1770,6 +2232,9 @@
       <c r="B152">
         <v>3</v>
       </c>
+      <c r="C152" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -1778,6 +2243,9 @@
       <c r="B153">
         <v>4</v>
       </c>
+      <c r="C153" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -1786,6 +2254,9 @@
       <c r="B154">
         <v>5</v>
       </c>
+      <c r="C154" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -1794,6 +2265,9 @@
       <c r="B155">
         <v>6</v>
       </c>
+      <c r="C155" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -1802,6 +2276,9 @@
       <c r="B156">
         <v>7</v>
       </c>
+      <c r="C156" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -1810,6 +2287,9 @@
       <c r="B157">
         <v>8</v>
       </c>
+      <c r="C157" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -1823,9 +2303,9 @@
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="str">
         <f>C150</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,9 +2315,9 @@
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="str">
         <f>C151</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,9 +2333,9 @@
         <f>INDEX(B150:B157,MATCH(A164,A150:A157,0))</f>
         <v>3</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="str">
         <f>INDEX(C150:C157,MATCH(A164,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,9 +2346,9 @@
         <f>INDEX(B150:B157,MATCH(A165,A150:A157,0))</f>
         <v>2</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="str">
         <f>INDEX(C150:C157,MATCH(A165,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,9 +2359,9 @@
         <f>INDEX(B150:B157,MATCH(A166,A150:A157,0))</f>
         <v>1</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="str">
         <f>INDEX(C150:C157,MATCH(A166,A150:A157,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,9 +2372,9 @@
         <f>INDEX(B150:B157,MATCH(A167,A150:A157,0))</f>
         <v>7</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="str">
         <f>INDEX(C150:C157,MATCH(A167,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,9 +2385,9 @@
         <f>INDEX(B150:B157,MATCH(A168,A150:A157,0))</f>
         <v>5</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="str">
         <f>INDEX(C150:C157,MATCH(A168,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,9 +2398,9 @@
         <f>INDEX(B150:B157,MATCH(A169,A150:A157,0))</f>
         <v>8</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="str">
         <f>INDEX(C150:C157,MATCH(A169,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,9 +2411,9 @@
         <f>INDEX(B150:B157,MATCH(A170,A150:A157,0))</f>
         <v>6</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="str">
         <f>INDEX(C150:C157,MATCH(A170,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,9 +2424,9 @@
         <f>INDEX(B150:B157,MATCH(A171,A150:A157,0))</f>
         <v>4</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="str">
         <f>INDEX(C150:C157,MATCH(A171,A150:A157,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,6 +2459,9 @@
       <c r="B179">
         <v>1</v>
       </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -1987,6 +2470,9 @@
       <c r="B180">
         <v>2</v>
       </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -1995,6 +2481,9 @@
       <c r="B181">
         <v>3</v>
       </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -2003,6 +2492,9 @@
       <c r="B182">
         <v>4</v>
       </c>
+      <c r="C182" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -2011,6 +2503,9 @@
       <c r="B183">
         <v>5</v>
       </c>
+      <c r="C183" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -2019,6 +2514,9 @@
       <c r="B184">
         <v>6</v>
       </c>
+      <c r="C184" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -2027,6 +2525,9 @@
       <c r="B185">
         <v>7</v>
       </c>
+      <c r="C185" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -2035,6 +2536,9 @@
       <c r="B186">
         <v>8</v>
       </c>
+      <c r="C186" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -2048,9 +2552,9 @@
       <c r="B189">
         <v>1</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="str">
         <f>C179</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,9 +2564,9 @@
       <c r="B190">
         <v>2</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="str">
         <f>C180</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,9 +2582,9 @@
         <f>INDEX(B179:B186,MATCH(A193,A179:A186,0))</f>
         <v>5</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="str">
         <f>INDEX(C179:C186,MATCH(A193,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,9 +2595,9 @@
         <f>INDEX(B179:B186,MATCH(A194,A179:A186,0))</f>
         <v>4</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="str">
         <f>INDEX(C179:C186,MATCH(A194,A179:A186,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2104,9 +2608,9 @@
         <f>INDEX(B179:B186,MATCH(A195,A179:A186,0))</f>
         <v>2</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="str">
         <f>INDEX(C179:C186,MATCH(A195,A179:A186,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,9 +2621,9 @@
         <f>INDEX(B179:B186,MATCH(A196,A179:A186,0))</f>
         <v>1</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="str">
         <f>INDEX(C179:C186,MATCH(A196,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,9 +2634,9 @@
         <f>INDEX(B179:B186,MATCH(A197,A179:A186,0))</f>
         <v>8</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="str">
         <f>INDEX(C179:C186,MATCH(A197,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,9 +2647,9 @@
         <f>INDEX(B179:B186,MATCH(A198,A179:A186,0))</f>
         <v>6</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="str">
         <f>INDEX(C179:C186,MATCH(A198,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,9 +2660,9 @@
         <f>INDEX(B179:B186,MATCH(A199,A179:A186,0))</f>
         <v>3</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="str">
         <f>INDEX(C179:C186,MATCH(A199,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,9 +2673,9 @@
         <f>INDEX(B179:B186,MATCH(A200,A179:A186,0))</f>
         <v>7</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="str">
         <f>INDEX(C179:C186,MATCH(A200,A179:A186,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,6 +2708,9 @@
       <c r="B208">
         <v>1</v>
       </c>
+      <c r="C208" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -2212,6 +2719,9 @@
       <c r="B209">
         <v>2</v>
       </c>
+      <c r="C209" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -2220,6 +2730,9 @@
       <c r="B210">
         <v>3</v>
       </c>
+      <c r="C210" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -2228,6 +2741,9 @@
       <c r="B211">
         <v>4</v>
       </c>
+      <c r="C211" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -2236,6 +2752,9 @@
       <c r="B212">
         <v>5</v>
       </c>
+      <c r="C212" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -2244,6 +2763,9 @@
       <c r="B213">
         <v>6</v>
       </c>
+      <c r="C213" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -2252,6 +2774,9 @@
       <c r="B214">
         <v>7</v>
       </c>
+      <c r="C214" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -2260,6 +2785,9 @@
       <c r="B215">
         <v>8</v>
       </c>
+      <c r="C215" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -2273,9 +2801,9 @@
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="str">
         <f>C208</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,9 +2813,9 @@
       <c r="B219">
         <v>2</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="str">
         <f>C209</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,9 +2831,9 @@
         <f>INDEX(B208:B215,MATCH(A222,A208:A215,0))</f>
         <v>4</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="str">
         <f>INDEX(C208:C215,MATCH(A222,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,9 +2844,9 @@
         <f>INDEX(B208:B215,MATCH(A223,A208:A215,0))</f>
         <v>5</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="str">
         <f>INDEX(C208:C215,MATCH(A223,A208:A215,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2329,9 +2857,9 @@
         <f>INDEX(B208:B215,MATCH(A224,A208:A215,0))</f>
         <v>7</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="str">
         <f>INDEX(C208:C215,MATCH(A224,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,9 +2870,9 @@
         <f>INDEX(B208:B215,MATCH(A225,A208:A215,0))</f>
         <v>6</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="str">
         <f>INDEX(C208:C215,MATCH(A225,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,9 +2883,9 @@
         <f>INDEX(B208:B215,MATCH(A226,A208:A215,0))</f>
         <v>3</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="str">
         <f>INDEX(C208:C215,MATCH(A226,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2368,9 +2896,9 @@
         <f>INDEX(B208:B215,MATCH(A227,A208:A215,0))</f>
         <v>8</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="str">
         <f>INDEX(C208:C215,MATCH(A227,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,9 +2909,9 @@
         <f>INDEX(B208:B215,MATCH(A228,A208:A215,0))</f>
         <v>2</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="str">
         <f>INDEX(C208:C215,MATCH(A228,A208:A215,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,9 +2922,9 @@
         <f>INDEX(B208:B215,MATCH(A229,A208:A215,0))</f>
         <v>1</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="str">
         <f>INDEX(C208:C215,MATCH(A229,A208:A215,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,6 +2957,9 @@
       <c r="B237">
         <v>1</v>
       </c>
+      <c r="C237" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
@@ -2437,6 +2968,9 @@
       <c r="B238">
         <v>2</v>
       </c>
+      <c r="C238" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -2445,6 +2979,9 @@
       <c r="B239">
         <v>3</v>
       </c>
+      <c r="C239" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -2453,6 +2990,9 @@
       <c r="B240">
         <v>4</v>
       </c>
+      <c r="C240" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -2461,6 +3001,9 @@
       <c r="B241">
         <v>5</v>
       </c>
+      <c r="C241" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -2469,6 +3012,9 @@
       <c r="B242">
         <v>6</v>
       </c>
+      <c r="C242" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -2477,6 +3023,9 @@
       <c r="B243">
         <v>7</v>
       </c>
+      <c r="C243" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -2485,6 +3034,9 @@
       <c r="B244">
         <v>8</v>
       </c>
+      <c r="C244" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -2498,9 +3050,9 @@
       <c r="B247">
         <v>1</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="str">
         <f>C237</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -2510,9 +3062,9 @@
       <c r="B248">
         <v>2</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="str">
         <f>C238</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,9 +3080,9 @@
         <f>INDEX(B237:B244,MATCH(A251,A237:A244,0))</f>
         <v>1</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="str">
         <f>INDEX(C237:C244,MATCH(A251,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,9 +3093,9 @@
         <f>INDEX(B237:B244,MATCH(A252,A237:A244,0))</f>
         <v>5</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="str">
         <f>INDEX(C237:C244,MATCH(A252,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -2554,9 +3106,9 @@
         <f>INDEX(B237:B244,MATCH(A253,A237:A244,0))</f>
         <v>2</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="str">
         <f>INDEX(C237:C244,MATCH(A253,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,9 +3119,9 @@
         <f>INDEX(B237:B244,MATCH(A254,A237:A244,0))</f>
         <v>3</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="str">
         <f>INDEX(C237:C244,MATCH(A254,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,9 +3132,9 @@
         <f>INDEX(B237:B244,MATCH(A255,A237:A244,0))</f>
         <v>7</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="str">
         <f>INDEX(C237:C244,MATCH(A255,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -2593,9 +3145,9 @@
         <f>INDEX(B237:B244,MATCH(A256,A237:A244,0))</f>
         <v>4</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="str">
         <f>INDEX(C237:C244,MATCH(A256,A237:A244,0))</f>
-        <v>0</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,9 +3158,9 @@
         <f>INDEX(B237:B244,MATCH(A257,A237:A244,0))</f>
         <v>8</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="str">
         <f>INDEX(C237:C244,MATCH(A257,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -2619,9 +3171,3198 @@
         <f>INDEX(B237:B244,MATCH(A258,A237:A244,0))</f>
         <v>6</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="str">
         <f>INDEX(C237:C244,MATCH(A258,A237:A244,0))</f>
-        <v>0</v>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>86</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>87</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>88</v>
+      </c>
+      <c r="B269">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>89</v>
+      </c>
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>90</v>
+      </c>
+      <c r="B271">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>91</v>
+      </c>
+      <c r="B272">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>92</v>
+      </c>
+      <c r="B273">
+        <v>8</v>
+      </c>
+      <c r="C273" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="str">
+        <f>C266</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>86</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" t="str">
+        <f>C267</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>91</v>
+      </c>
+      <c r="B280">
+        <f>INDEX(B266:B273,MATCH(A280,A266:A273,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C280" t="str">
+        <f>INDEX(C266:C273,MATCH(A280,A266:A273,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281">
+        <f>INDEX(B266:B273,MATCH(A281,A266:A273,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C281" t="str">
+        <f>INDEX(C266:C273,MATCH(A281,A266:A273,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>89</v>
+      </c>
+      <c r="B282">
+        <f>INDEX(B266:B273,MATCH(A282,A266:A273,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C282" t="str">
+        <f>INDEX(C266:C273,MATCH(A282,A266:A273,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>90</v>
+      </c>
+      <c r="B283">
+        <f>INDEX(B266:B273,MATCH(A283,A266:A273,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C283" t="str">
+        <f>INDEX(C266:C273,MATCH(A283,A266:A273,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>88</v>
+      </c>
+      <c r="B284">
+        <f>INDEX(B266:B273,MATCH(A284,A266:A273,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C284" t="str">
+        <f>INDEX(C266:C273,MATCH(A284,A266:A273,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>92</v>
+      </c>
+      <c r="B285">
+        <f>INDEX(B266:B273,MATCH(A285,A266:A273,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C285" t="str">
+        <f>INDEX(C266:C273,MATCH(A285,A266:A273,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>87</v>
+      </c>
+      <c r="B286">
+        <f>INDEX(B266:B273,MATCH(A286,A266:A273,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C286" t="str">
+        <f>INDEX(C266:C273,MATCH(A286,A266:A273,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>86</v>
+      </c>
+      <c r="B287">
+        <f>INDEX(B266:B273,MATCH(A287,A266:A273,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C287" t="str">
+        <f>INDEX(C266:C273,MATCH(A287,A266:A273,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>95</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>96</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>97</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>98</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>99</v>
+      </c>
+      <c r="B299">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>100</v>
+      </c>
+      <c r="B300">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>101</v>
+      </c>
+      <c r="B301">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>102</v>
+      </c>
+      <c r="B302">
+        <v>8</v>
+      </c>
+      <c r="C302" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>95</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" t="str">
+        <f>C295</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>96</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306" t="str">
+        <f>C296</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>95</v>
+      </c>
+      <c r="B309">
+        <f>INDEX(B295:B302,MATCH(A309,A295:A302,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C309" t="str">
+        <f>INDEX(C295:C302,MATCH(A309,A295:A302,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>101</v>
+      </c>
+      <c r="B310">
+        <f>INDEX(B295:B302,MATCH(A310,A295:A302,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C310" t="str">
+        <f>INDEX(C295:C302,MATCH(A310,A295:A302,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>97</v>
+      </c>
+      <c r="B311">
+        <f>INDEX(B295:B302,MATCH(A311,A295:A302,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C311" t="str">
+        <f>INDEX(C295:C302,MATCH(A311,A295:A302,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>102</v>
+      </c>
+      <c r="B312">
+        <f>INDEX(B295:B302,MATCH(A312,A295:A302,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C312" t="str">
+        <f>INDEX(C295:C302,MATCH(A312,A295:A302,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>100</v>
+      </c>
+      <c r="B313">
+        <f>INDEX(B295:B302,MATCH(A313,A295:A302,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C313" t="str">
+        <f>INDEX(C295:C302,MATCH(A313,A295:A302,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>99</v>
+      </c>
+      <c r="B314">
+        <f>INDEX(B295:B302,MATCH(A314,A295:A302,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C314" t="str">
+        <f>INDEX(C295:C302,MATCH(A314,A295:A302,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>96</v>
+      </c>
+      <c r="B315">
+        <f>INDEX(B295:B302,MATCH(A315,A295:A302,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C315" t="str">
+        <f>INDEX(C295:C302,MATCH(A315,A295:A302,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>98</v>
+      </c>
+      <c r="B316">
+        <f>INDEX(B295:B302,MATCH(A316,A295:A302,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C316" t="str">
+        <f>INDEX(C295:C302,MATCH(A316,A295:A302,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>183</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>184</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>185</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>186</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>187</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>104</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332" t="str">
+        <f>C324</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>105</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="str">
+        <f>C325</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>187</v>
+      </c>
+      <c r="B336">
+        <f>INDEX(B322:B329,MATCH(A336,A322:A329,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C336" t="str">
+        <f>INDEX(C322:C329,MATCH(A336,A322:A329,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>183</v>
+      </c>
+      <c r="B337">
+        <f>INDEX(B322:B329,MATCH(A337,A322:A329,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C337" t="str">
+        <f>INDEX(C322:C329,MATCH(A337,A322:A329,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338">
+        <f>INDEX(B322:B329,MATCH(A338,A322:A329,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C338" t="str">
+        <f>INDEX(C322:C329,MATCH(A338,A322:A329,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>186</v>
+      </c>
+      <c r="B339">
+        <f>INDEX(B322:B329,MATCH(A339,A322:A329,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C339" t="str">
+        <f>INDEX(C322:C329,MATCH(A339,A322:A329,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>185</v>
+      </c>
+      <c r="B340">
+        <f>INDEX(B322:B329,MATCH(A340,A322:A329,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C340" t="str">
+        <f>INDEX(C322:C329,MATCH(A340,A322:A329,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>184</v>
+      </c>
+      <c r="B341">
+        <f>INDEX(B322:B329,MATCH(A341,A322:A329,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C341" t="str">
+        <f>INDEX(C322:C329,MATCH(A341,A322:A329,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>108</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>109</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>110</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>111</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+      <c r="C352" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>112</v>
+      </c>
+      <c r="B353">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>91</v>
+      </c>
+      <c r="B354">
+        <v>6</v>
+      </c>
+      <c r="C354" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>113</v>
+      </c>
+      <c r="B355">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>114</v>
+      </c>
+      <c r="B356">
+        <v>8</v>
+      </c>
+      <c r="C356" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>108</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" t="str">
+        <f>C349</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>109</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360" t="str">
+        <f>C350</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>91</v>
+      </c>
+      <c r="B363">
+        <f>INDEX(B349:B356,MATCH(A363,A349:A356,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C363" t="str">
+        <f>INDEX(C349:C356,MATCH(A363,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>108</v>
+      </c>
+      <c r="B364">
+        <f>INDEX(B349:B356,MATCH(A364,A349:A356,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C364" t="str">
+        <f>INDEX(C349:C356,MATCH(A364,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>110</v>
+      </c>
+      <c r="B365">
+        <f>INDEX(B349:B356,MATCH(A365,A349:A356,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C365" t="str">
+        <f>INDEX(C349:C356,MATCH(A365,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>111</v>
+      </c>
+      <c r="B366">
+        <f>INDEX(B349:B356,MATCH(A366,A349:A356,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C366" t="str">
+        <f>INDEX(C349:C356,MATCH(A366,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>109</v>
+      </c>
+      <c r="B367">
+        <f>INDEX(B349:B356,MATCH(A367,A349:A356,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C367" t="str">
+        <f>INDEX(C349:C356,MATCH(A367,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>114</v>
+      </c>
+      <c r="B368">
+        <f>INDEX(B349:B356,MATCH(A368,A349:A356,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C368" t="str">
+        <f>INDEX(C349:C356,MATCH(A368,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>112</v>
+      </c>
+      <c r="B369">
+        <f>INDEX(B349:B356,MATCH(A369,A349:A356,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C369" t="str">
+        <f>INDEX(C349:C356,MATCH(A369,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>113</v>
+      </c>
+      <c r="B370">
+        <f>INDEX(B349:B356,MATCH(A370,A349:A356,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C370" t="str">
+        <f>INDEX(C349:C356,MATCH(A370,A349:A356,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1</v>
+      </c>
+      <c r="B376" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>189</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>190</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>191</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>21</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>192</v>
+      </c>
+      <c r="B382">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>19</v>
+      </c>
+      <c r="B383">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>193</v>
+      </c>
+      <c r="B384">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>116</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388" t="str">
+        <f>C378</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>117</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="C389" t="str">
+        <f>C379</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>21</v>
+      </c>
+      <c r="B392">
+        <f>INDEX(B378:B385,MATCH(A392,A378:A385,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C392" t="str">
+        <f>INDEX(C378:C385,MATCH(A392,A378:A385,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>193</v>
+      </c>
+      <c r="B393">
+        <f>INDEX(B378:B385,MATCH(A393,A378:A385,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C393" t="str">
+        <f>INDEX(C378:C385,MATCH(A393,A378:A385,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>190</v>
+      </c>
+      <c r="B394">
+        <f>INDEX(B378:B385,MATCH(A394,A378:A385,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C394" t="str">
+        <f>INDEX(C378:C385,MATCH(A394,A378:A385,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>192</v>
+      </c>
+      <c r="B395">
+        <f>INDEX(B378:B385,MATCH(A395,A378:A385,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C395" t="str">
+        <f>INDEX(C378:C385,MATCH(A395,A378:A385,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>194</v>
+      </c>
+      <c r="B396">
+        <f>INDEX(B378:B385,MATCH(A396,A378:A385,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C396" t="str">
+        <f>INDEX(C378:C385,MATCH(A396,A378:A385,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>19</v>
+      </c>
+      <c r="B397">
+        <f>INDEX(B378:B385,MATCH(A397,A378:A385,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C397" t="str">
+        <f>INDEX(C378:C385,MATCH(A397,A378:A385,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>191</v>
+      </c>
+      <c r="B398">
+        <f>INDEX(B378:B385,MATCH(A398,A378:A385,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C398" t="str">
+        <f>INDEX(C378:C385,MATCH(A398,A378:A385,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>189</v>
+      </c>
+      <c r="B399">
+        <f>INDEX(B378:B385,MATCH(A399,A378:A385,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C399" t="str">
+        <f>INDEX(C378:C385,MATCH(A399,A378:A385,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>189</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>190</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>191</v>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+      <c r="C409" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>21</v>
+      </c>
+      <c r="B410">
+        <v>4</v>
+      </c>
+      <c r="C410" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>192</v>
+      </c>
+      <c r="B411">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>193</v>
+      </c>
+      <c r="B413">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>194</v>
+      </c>
+      <c r="B414">
+        <v>8</v>
+      </c>
+      <c r="C414" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>118</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417" t="str">
+        <f>C407</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>119</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418" t="str">
+        <f>C408</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>21</v>
+      </c>
+      <c r="B421">
+        <f>INDEX(B407:B414,MATCH(A421,A407:A414,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C421" t="str">
+        <f>INDEX(C407:C414,MATCH(A421,A407:A414,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>193</v>
+      </c>
+      <c r="B422">
+        <f>INDEX(B407:B414,MATCH(A422,A407:A414,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C422" t="str">
+        <f>INDEX(C407:C414,MATCH(A422,A407:A414,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>190</v>
+      </c>
+      <c r="B423">
+        <f>INDEX(B407:B414,MATCH(A423,A407:A414,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C423" t="str">
+        <f>INDEX(C407:C414,MATCH(A423,A407:A414,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>192</v>
+      </c>
+      <c r="B424">
+        <f>INDEX(B407:B414,MATCH(A424,A407:A414,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C424" t="str">
+        <f>INDEX(C407:C414,MATCH(A424,A407:A414,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>194</v>
+      </c>
+      <c r="B425">
+        <f>INDEX(B407:B414,MATCH(A425,A407:A414,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C425" t="str">
+        <f>INDEX(C407:C414,MATCH(A425,A407:A414,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>19</v>
+      </c>
+      <c r="B426">
+        <f>INDEX(B407:B414,MATCH(A426,A407:A414,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C426" t="str">
+        <f>INDEX(C407:C414,MATCH(A426,A407:A414,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>191</v>
+      </c>
+      <c r="B427">
+        <f>INDEX(B407:B414,MATCH(A427,A407:A414,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C427" t="str">
+        <f>INDEX(C407:C414,MATCH(A427,A407:A414,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>189</v>
+      </c>
+      <c r="B428">
+        <f>INDEX(B407:B414,MATCH(A428,A407:A414,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C428" t="str">
+        <f>INDEX(C407:C414,MATCH(A428,A407:A414,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1</v>
+      </c>
+      <c r="B434" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>122</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>123</v>
+      </c>
+      <c r="B437">
+        <v>2</v>
+      </c>
+      <c r="C437" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>124</v>
+      </c>
+      <c r="B438">
+        <v>3</v>
+      </c>
+      <c r="C438" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>45</v>
+      </c>
+      <c r="B439">
+        <v>4</v>
+      </c>
+      <c r="C439" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>125</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>47</v>
+      </c>
+      <c r="B441">
+        <v>6</v>
+      </c>
+      <c r="C441" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>126</v>
+      </c>
+      <c r="B442">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>127</v>
+      </c>
+      <c r="B443">
+        <v>8</v>
+      </c>
+      <c r="C443" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>122</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446" t="str">
+        <f>C436</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>123</v>
+      </c>
+      <c r="B447">
+        <v>2</v>
+      </c>
+      <c r="C447" t="str">
+        <f>C437</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>126</v>
+      </c>
+      <c r="B450">
+        <f>INDEX(B436:B443,MATCH(A450,A436:A443,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C450" t="str">
+        <f>INDEX(C436:C443,MATCH(A450,A436:A443,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>125</v>
+      </c>
+      <c r="B451">
+        <f>INDEX(B436:B443,MATCH(A451,A436:A443,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C451" t="str">
+        <f>INDEX(C436:C443,MATCH(A451,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>122</v>
+      </c>
+      <c r="B452">
+        <f>INDEX(B436:B443,MATCH(A452,A436:A443,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C452" t="str">
+        <f>INDEX(C436:C443,MATCH(A452,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>45</v>
+      </c>
+      <c r="B453">
+        <f>INDEX(B436:B443,MATCH(A453,A436:A443,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C453" t="str">
+        <f>INDEX(C436:C443,MATCH(A453,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>47</v>
+      </c>
+      <c r="B454">
+        <f>INDEX(B436:B443,MATCH(A454,A436:A443,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C454" t="str">
+        <f>INDEX(C436:C443,MATCH(A454,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>124</v>
+      </c>
+      <c r="B455">
+        <f>INDEX(B436:B443,MATCH(A455,A436:A443,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C455" t="str">
+        <f>INDEX(C436:C443,MATCH(A455,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>127</v>
+      </c>
+      <c r="B456">
+        <f>INDEX(B436:B443,MATCH(A456,A436:A443,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C456" t="str">
+        <f>INDEX(C436:C443,MATCH(A456,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>123</v>
+      </c>
+      <c r="B457">
+        <f>INDEX(B436:B443,MATCH(A457,A436:A443,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C457" t="str">
+        <f>INDEX(C436:C443,MATCH(A457,A436:A443,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1</v>
+      </c>
+      <c r="B463" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>130</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>131</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>132</v>
+      </c>
+      <c r="B467">
+        <v>3</v>
+      </c>
+      <c r="C467" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>133</v>
+      </c>
+      <c r="B468">
+        <v>4</v>
+      </c>
+      <c r="C468" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>134</v>
+      </c>
+      <c r="B469">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>135</v>
+      </c>
+      <c r="B470">
+        <v>6</v>
+      </c>
+      <c r="C470" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>136</v>
+      </c>
+      <c r="B471">
+        <v>7</v>
+      </c>
+      <c r="C471" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>137</v>
+      </c>
+      <c r="B472">
+        <v>8</v>
+      </c>
+      <c r="C472" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>130</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475" t="str">
+        <f>C465</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>131</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476" t="str">
+        <f>C466</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>130</v>
+      </c>
+      <c r="B479">
+        <f>INDEX(B465:B472,MATCH(A479,A465:A472,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C479" t="str">
+        <f>INDEX(C465:C472,MATCH(A479,A465:A472,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>133</v>
+      </c>
+      <c r="B480">
+        <f>INDEX(B465:B472,MATCH(A480,A465:A472,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C480" t="str">
+        <f>INDEX(C465:C472,MATCH(A480,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>131</v>
+      </c>
+      <c r="B481">
+        <f>INDEX(B465:B472,MATCH(A481,A465:A472,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C481" t="str">
+        <f>INDEX(C465:C472,MATCH(A481,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>136</v>
+      </c>
+      <c r="B482">
+        <f>INDEX(B465:B472,MATCH(A482,A465:A472,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C482" t="str">
+        <f>INDEX(C465:C472,MATCH(A482,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>134</v>
+      </c>
+      <c r="B483">
+        <f>INDEX(B465:B472,MATCH(A483,A465:A472,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C483" t="str">
+        <f>INDEX(C465:C472,MATCH(A483,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>132</v>
+      </c>
+      <c r="B484">
+        <f>INDEX(B465:B472,MATCH(A484,A465:A472,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C484" t="str">
+        <f>INDEX(C465:C472,MATCH(A484,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>137</v>
+      </c>
+      <c r="B485">
+        <f>INDEX(B465:B472,MATCH(A485,A465:A472,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C485" t="str">
+        <f>INDEX(C465:C472,MATCH(A485,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>135</v>
+      </c>
+      <c r="B486">
+        <f>INDEX(B465:B472,MATCH(A486,A465:A472,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C486" t="str">
+        <f>INDEX(C465:C472,MATCH(A486,A465:A472,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1</v>
+      </c>
+      <c r="B492" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>140</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>141</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>142</v>
+      </c>
+      <c r="B496">
+        <v>3</v>
+      </c>
+      <c r="C496" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>143</v>
+      </c>
+      <c r="B497">
+        <v>4</v>
+      </c>
+      <c r="C497" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>130</v>
+      </c>
+      <c r="B498">
+        <v>5</v>
+      </c>
+      <c r="C498" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>144</v>
+      </c>
+      <c r="B499">
+        <v>6</v>
+      </c>
+      <c r="C499" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>145</v>
+      </c>
+      <c r="B500">
+        <v>7</v>
+      </c>
+      <c r="C500" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>146</v>
+      </c>
+      <c r="B501">
+        <v>8</v>
+      </c>
+      <c r="C501" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>140</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504" t="str">
+        <f>C494</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>141</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505" t="str">
+        <f>C495</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>130</v>
+      </c>
+      <c r="B508">
+        <f>INDEX(B494:B501,MATCH(A508,A494:A501,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C508" t="str">
+        <f>INDEX(C494:C501,MATCH(A508,A494:A501,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>142</v>
+      </c>
+      <c r="B509">
+        <f>INDEX(B494:B501,MATCH(A509,A494:A501,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C509" t="str">
+        <f>INDEX(C494:C501,MATCH(A509,A494:A501,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>145</v>
+      </c>
+      <c r="B510">
+        <f>INDEX(B494:B501,MATCH(A510,A494:A501,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C510" t="str">
+        <f>INDEX(C494:C501,MATCH(A510,A494:A501,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>144</v>
+      </c>
+      <c r="B511">
+        <f>INDEX(B494:B501,MATCH(A511,A494:A501,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C511" t="str">
+        <f>INDEX(C494:C501,MATCH(A511,A494:A501,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>140</v>
+      </c>
+      <c r="B512">
+        <f>INDEX(B494:B501,MATCH(A512,A494:A501,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C512" t="str">
+        <f>INDEX(C494:C501,MATCH(A512,A494:A501,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>146</v>
+      </c>
+      <c r="B513">
+        <f>INDEX(B494:B501,MATCH(A513,A494:A501,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C513" t="str">
+        <f>INDEX(C494:C501,MATCH(A513,A494:A501,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>143</v>
+      </c>
+      <c r="B514">
+        <f>INDEX(B494:B501,MATCH(A514,A494:A501,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C514" t="str">
+        <f>INDEX(C494:C501,MATCH(A514,A494:A501,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>141</v>
+      </c>
+      <c r="B515">
+        <f>INDEX(B494:B501,MATCH(A515,A494:A501,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C515" t="str">
+        <f>INDEX(C494:C501,MATCH(A515,A494:A501,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1</v>
+      </c>
+      <c r="B521" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>37</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="C523" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>149</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
+      </c>
+      <c r="C524" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>38</v>
+      </c>
+      <c r="B525">
+        <v>3</v>
+      </c>
+      <c r="C525" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>150</v>
+      </c>
+      <c r="B526">
+        <v>4</v>
+      </c>
+      <c r="C526" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>33</v>
+      </c>
+      <c r="B527">
+        <v>5</v>
+      </c>
+      <c r="C527" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>70</v>
+      </c>
+      <c r="B528">
+        <v>6</v>
+      </c>
+      <c r="C528" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>151</v>
+      </c>
+      <c r="B529">
+        <v>7</v>
+      </c>
+      <c r="C529" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>152</v>
+      </c>
+      <c r="B530">
+        <v>8</v>
+      </c>
+      <c r="C530" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>37</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533" t="str">
+        <f>C523</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>149</v>
+      </c>
+      <c r="B534">
+        <v>2</v>
+      </c>
+      <c r="C534" t="str">
+        <f>C524</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>37</v>
+      </c>
+      <c r="B537">
+        <f>INDEX(B523:B530,MATCH(A537,A523:A530,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C537" t="str">
+        <f>INDEX(C523:C530,MATCH(A537,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>151</v>
+      </c>
+      <c r="B538">
+        <f>INDEX(B523:B530,MATCH(A538,A523:A530,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C538" t="str">
+        <f>INDEX(C523:C530,MATCH(A538,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>149</v>
+      </c>
+      <c r="B539">
+        <f>INDEX(B523:B530,MATCH(A539,A523:A530,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C539" t="str">
+        <f>INDEX(C523:C530,MATCH(A539,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>38</v>
+      </c>
+      <c r="B540">
+        <f>INDEX(B523:B530,MATCH(A540,A523:A530,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C540" t="str">
+        <f>INDEX(C523:C530,MATCH(A540,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>70</v>
+      </c>
+      <c r="B541">
+        <f>INDEX(B523:B530,MATCH(A541,A523:A530,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C541" t="str">
+        <f>INDEX(C523:C530,MATCH(A541,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>33</v>
+      </c>
+      <c r="B542">
+        <f>INDEX(B523:B530,MATCH(A542,A523:A530,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C542" t="str">
+        <f>INDEX(C523:C530,MATCH(A542,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>150</v>
+      </c>
+      <c r="B543">
+        <f>INDEX(B523:B530,MATCH(A543,A523:A530,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C543" t="str">
+        <f>INDEX(C523:C530,MATCH(A543,A523:A530,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>152</v>
+      </c>
+      <c r="B544">
+        <f>INDEX(B523:B530,MATCH(A544,A523:A530,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C544" t="str">
+        <f>INDEX(C523:C530,MATCH(A544,A523:A530,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1</v>
+      </c>
+      <c r="B550" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>155</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>156</v>
+      </c>
+      <c r="B553">
+        <v>2</v>
+      </c>
+      <c r="C553" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>157</v>
+      </c>
+      <c r="B554">
+        <v>3</v>
+      </c>
+      <c r="C554" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>158</v>
+      </c>
+      <c r="B555">
+        <v>4</v>
+      </c>
+      <c r="C555" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>159</v>
+      </c>
+      <c r="B556">
+        <v>5</v>
+      </c>
+      <c r="C556" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>160</v>
+      </c>
+      <c r="B557">
+        <v>6</v>
+      </c>
+      <c r="C557" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>161</v>
+      </c>
+      <c r="B558">
+        <v>7</v>
+      </c>
+      <c r="C558" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>162</v>
+      </c>
+      <c r="B559">
+        <v>8</v>
+      </c>
+      <c r="C559" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>155</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562" t="str">
+        <f>C552</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>156</v>
+      </c>
+      <c r="B563">
+        <v>2</v>
+      </c>
+      <c r="C563" t="str">
+        <f>C553</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>160</v>
+      </c>
+      <c r="B566">
+        <f>INDEX(B552:B559,MATCH(A566,A552:A559,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C566" t="str">
+        <f>INDEX(C552:C559,MATCH(A566,A552:A559,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>162</v>
+      </c>
+      <c r="B567">
+        <f>INDEX(B552:B559,MATCH(A567,A552:A559,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C567" t="str">
+        <f>INDEX(C552:C559,MATCH(A567,A552:A559,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>157</v>
+      </c>
+      <c r="B568">
+        <f>INDEX(B552:B559,MATCH(A568,A552:A559,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C568" t="str">
+        <f>INDEX(C552:C559,MATCH(A568,A552:A559,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>158</v>
+      </c>
+      <c r="B569">
+        <f>INDEX(B552:B559,MATCH(A569,A552:A559,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C569" t="str">
+        <f>INDEX(C552:C559,MATCH(A569,A552:A559,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>156</v>
+      </c>
+      <c r="B570">
+        <f>INDEX(B552:B559,MATCH(A570,A552:A559,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C570" t="str">
+        <f>INDEX(C552:C559,MATCH(A570,A552:A559,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>159</v>
+      </c>
+      <c r="B571">
+        <f>INDEX(B552:B559,MATCH(A571,A552:A559,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C571" t="str">
+        <f>INDEX(C552:C559,MATCH(A571,A552:A559,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>161</v>
+      </c>
+      <c r="B572">
+        <f>INDEX(B552:B559,MATCH(A572,A552:A559,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C572" t="str">
+        <f>INDEX(C552:C559,MATCH(A572,A552:A559,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>155</v>
+      </c>
+      <c r="B573">
+        <f>INDEX(B552:B559,MATCH(A573,A552:A559,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C573" t="str">
+        <f>INDEX(C552:C559,MATCH(A573,A552:A559,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1</v>
+      </c>
+      <c r="B579" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>165</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+      <c r="C581" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>166</v>
+      </c>
+      <c r="B582">
+        <v>2</v>
+      </c>
+      <c r="C582" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>167</v>
+      </c>
+      <c r="B583">
+        <v>3</v>
+      </c>
+      <c r="C583" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>168</v>
+      </c>
+      <c r="B584">
+        <v>4</v>
+      </c>
+      <c r="C584" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>169</v>
+      </c>
+      <c r="B585">
+        <v>5</v>
+      </c>
+      <c r="C585" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>170</v>
+      </c>
+      <c r="B586">
+        <v>6</v>
+      </c>
+      <c r="C586" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>171</v>
+      </c>
+      <c r="B587">
+        <v>7</v>
+      </c>
+      <c r="C587" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>172</v>
+      </c>
+      <c r="B588">
+        <v>8</v>
+      </c>
+      <c r="C588" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>165</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591" t="str">
+        <f>C581</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>166</v>
+      </c>
+      <c r="B592">
+        <v>2</v>
+      </c>
+      <c r="C592" t="str">
+        <f>C582</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>165</v>
+      </c>
+      <c r="B595">
+        <f>INDEX(B581:B588,MATCH(A595,A581:A588,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C595" t="str">
+        <f>INDEX(C581:C588,MATCH(A595,A581:A588,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>169</v>
+      </c>
+      <c r="B596">
+        <f>INDEX(B581:B588,MATCH(A596,A581:A588,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C596" t="str">
+        <f>INDEX(C581:C588,MATCH(A596,A581:A588,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>168</v>
+      </c>
+      <c r="B597">
+        <f>INDEX(B581:B588,MATCH(A597,A581:A588,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C597" t="str">
+        <f>INDEX(C581:C588,MATCH(A597,A581:A588,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>166</v>
+      </c>
+      <c r="B598">
+        <f>INDEX(B581:B588,MATCH(A598,A581:A588,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C598" t="str">
+        <f>INDEX(C581:C588,MATCH(A598,A581:A588,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>171</v>
+      </c>
+      <c r="B599">
+        <f>INDEX(B581:B588,MATCH(A599,A581:A588,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C599" t="str">
+        <f>INDEX(C581:C588,MATCH(A599,A581:A588,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>172</v>
+      </c>
+      <c r="B600">
+        <f>INDEX(B581:B588,MATCH(A600,A581:A588,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C600" t="str">
+        <f>INDEX(C581:C588,MATCH(A600,A581:A588,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>167</v>
+      </c>
+      <c r="B601">
+        <f>INDEX(B581:B588,MATCH(A601,A581:A588,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C601" t="str">
+        <f>INDEX(C581:C588,MATCH(A601,A581:A588,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>170</v>
+      </c>
+      <c r="B602">
+        <f>INDEX(B581:B588,MATCH(A602,A581:A588,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C602" t="str">
+        <f>INDEX(C581:C588,MATCH(A602,A581:A588,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1</v>
+      </c>
+      <c r="B608" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>174</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+      <c r="C610" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>175</v>
+      </c>
+      <c r="B611">
+        <v>2</v>
+      </c>
+      <c r="C611" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>176</v>
+      </c>
+      <c r="B612">
+        <v>3</v>
+      </c>
+      <c r="C612" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>177</v>
+      </c>
+      <c r="B613">
+        <v>4</v>
+      </c>
+      <c r="C613" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>178</v>
+      </c>
+      <c r="B614">
+        <v>5</v>
+      </c>
+      <c r="C614" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>179</v>
+      </c>
+      <c r="B615">
+        <v>6</v>
+      </c>
+      <c r="C615" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>180</v>
+      </c>
+      <c r="B616">
+        <v>7</v>
+      </c>
+      <c r="C616" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>165</v>
+      </c>
+      <c r="B617">
+        <v>8</v>
+      </c>
+      <c r="C617" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>174</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+      <c r="C620" t="str">
+        <f>C610</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>175</v>
+      </c>
+      <c r="B621">
+        <v>2</v>
+      </c>
+      <c r="C621" t="str">
+        <f>C611</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>177</v>
+      </c>
+      <c r="B624">
+        <f>INDEX(B610:B617,MATCH(A624,A610:A617,0))</f>
+        <v>4</v>
+      </c>
+      <c r="C624" t="str">
+        <f>INDEX(C610:C617,MATCH(A624,A610:A617,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>179</v>
+      </c>
+      <c r="B625">
+        <f>INDEX(B610:B617,MATCH(A625,A610:A617,0))</f>
+        <v>6</v>
+      </c>
+      <c r="C625" t="str">
+        <f>INDEX(C610:C617,MATCH(A625,A610:A617,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>174</v>
+      </c>
+      <c r="B626">
+        <f>INDEX(B610:B617,MATCH(A626,A610:A617,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C626" t="str">
+        <f>INDEX(C610:C617,MATCH(A626,A610:A617,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>175</v>
+      </c>
+      <c r="B627">
+        <f>INDEX(B610:B617,MATCH(A627,A610:A617,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C627" t="str">
+        <f>INDEX(C610:C617,MATCH(A627,A610:A617,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>178</v>
+      </c>
+      <c r="B628">
+        <f>INDEX(B610:B617,MATCH(A628,A610:A617,0))</f>
+        <v>5</v>
+      </c>
+      <c r="C628" t="str">
+        <f>INDEX(C610:C617,MATCH(A628,A610:A617,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>180</v>
+      </c>
+      <c r="B629">
+        <f>INDEX(B610:B617,MATCH(A629,A610:A617,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C629" t="str">
+        <f>INDEX(C610:C617,MATCH(A629,A610:A617,0))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>176</v>
+      </c>
+      <c r="B630">
+        <f>INDEX(B610:B617,MATCH(A630,A610:A617,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C630" t="str">
+        <f>INDEX(C610:C617,MATCH(A630,A610:A617,0))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>165</v>
+      </c>
+      <c r="B631">
+        <f>INDEX(B610:B617,MATCH(A631,A610:A617,0))</f>
+        <v>8</v>
+      </c>
+      <c r="C631" t="str">
+        <f>INDEX(C610:C617,MATCH(A631,A610:A617,0))</f>
+        <v>NO</v>
       </c>
     </row>
   </sheetData>
